--- a/Financials/Quarterly/TOT_QTR_FIN.xlsx
+++ b/Financials/Quarterly/TOT_QTR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C85ED2C7-8663-46C3-8838-910242D5316B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TOT" sheetId="6" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -300,9 +301,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -344,7 +345,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -441,6 +442,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -476,6 +494,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -651,148 +686,172 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43373</v>
+      </c>
+      <c r="F7" s="2">
         <v>43281</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43190</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43008</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>42916</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>42825</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>42735</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>46312000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>48400000</v>
+      </c>
+      <c r="F8" s="3">
         <v>46102000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>43292000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>41442000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>37082000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>34482000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>36093000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>36867000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>31825000</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>29896000</v>
+        <v>33153000</v>
       </c>
       <c r="E9" s="3">
-        <v>29513000</v>
+        <v>32577000</v>
       </c>
       <c r="F9" s="3">
+        <v>31302000</v>
+      </c>
+      <c r="G9" s="3">
+        <v>29379000</v>
+      </c>
+      <c r="H9" s="3">
         <v>28179000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>24585000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>22972000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>24055000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>24314000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>21176000</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>16206000</v>
+        <v>13159000</v>
       </c>
       <c r="E10" s="3">
-        <v>13779000</v>
+        <v>15823000</v>
       </c>
       <c r="F10" s="3">
+        <v>14800000</v>
+      </c>
+      <c r="G10" s="3">
+        <v>13913000</v>
+      </c>
+      <c r="H10" s="3">
         <v>13263000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>12497000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>11510000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>12038000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>12553000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>10649000</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -804,37 +863,45 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>201000</v>
+      </c>
+      <c r="E12" s="3">
+        <v>234000</v>
+      </c>
+      <c r="F12" s="3">
         <v>158000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>204000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>287000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>181000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>199000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>197000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>260000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>274000</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -862,66 +929,84 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>1127000</v>
+        <v>1491000</v>
       </c>
       <c r="E14" s="3">
-        <v>-45000</v>
+        <v>-122000</v>
       </c>
       <c r="F14" s="3">
+        <v>-279000</v>
+      </c>
+      <c r="G14" s="3">
+        <v>89000</v>
+      </c>
+      <c r="H14" s="3">
         <v>-520000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>-161000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>440000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>1862000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>1918000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>47000</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>3138000</v>
+      </c>
+      <c r="E15" s="3">
+        <v>3175000</v>
+      </c>
+      <c r="F15" s="3">
         <v>3011000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>2894000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>5691000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>2978000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>2784000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>2649000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>2816000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>2936000</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -930,66 +1015,80 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>44729000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>42511000</v>
+      </c>
+      <c r="F17" s="3">
         <v>41114000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>39170000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>40281000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>33354000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>32037000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>32895000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>36093000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>29963000</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>1583000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>5889000</v>
+      </c>
+      <c r="F18" s="3">
         <v>4988000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>4122000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>1161000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>3728000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>2445000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>3198000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>774000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>1862000</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1001,153 +1100,185 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>719000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>974000</v>
+      </c>
+      <c r="F20" s="3">
         <v>1211000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>513000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>693000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>495000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>399000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>605000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>449000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>637000</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>6855000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>10340000</v>
+      </c>
+      <c r="F21" s="3">
         <v>9707000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>7681000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>7711000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>7387000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>5774000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>8463000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>6253000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>5796000</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>529000</v>
+      </c>
+      <c r="E22" s="3">
+        <v>536000</v>
+      </c>
+      <c r="F22" s="3">
         <v>478000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>390000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>352000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>368000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>345000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>331000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>299000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>268000</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>1773000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>6327000</v>
+      </c>
+      <c r="F23" s="3">
         <v>5721000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>4245000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>1502000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>3855000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>2499000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>3472000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>924000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>2231000</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>593000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>2240000</v>
+      </c>
+      <c r="F24" s="3">
         <v>2087000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>1596000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>772000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>1092000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>472000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>693000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>437000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>251000</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1175,66 +1306,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>1180000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>4087000</v>
+      </c>
+      <c r="F26" s="3">
         <v>3634000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>2649000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>730000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>2763000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>2027000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>2779000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>487000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>1980000</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>817000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>3957000</v>
+      </c>
+      <c r="F27" s="3">
         <v>3721000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>2636000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>719000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>2724000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>2037000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>2849000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>345000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>1954000</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1262,8 +1411,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1291,8 +1446,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1320,8 +1481,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1349,66 +1516,84 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>-719000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-974000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1211000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-513000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-693000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-495000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-399000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-605000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-449000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-637000</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>817000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>3957000</v>
+      </c>
+      <c r="F33" s="3">
         <v>3721000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>2636000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>719000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>2724000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>2037000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>2849000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>345000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>1954000</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1436,71 +1621,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>817000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>3957000</v>
+      </c>
+      <c r="F35" s="3">
         <v>3721000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>2636000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>719000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>2724000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>2037000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>2849000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>345000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>1954000</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43373</v>
+      </c>
+      <c r="F38" s="2">
         <v>43281</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43190</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43008</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>42916</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>42825</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>42735</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1512,8 +1715,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1525,269 +1730,325 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>27907000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>25252000</v>
+      </c>
+      <c r="F41" s="3">
         <v>26475000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>30092000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>33185000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>28583000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>28720000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>27526000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>24597000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>24801000</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
+        <v>3654000</v>
+      </c>
+      <c r="E42" s="3">
+        <v>3553000</v>
+      </c>
+      <c r="F42" s="3">
         <v>3609000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>2289000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>3393000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>2579000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>3618000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>3971000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>4548000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>1755000</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>17270000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>20010000</v>
+      </c>
+      <c r="F43" s="3">
         <v>16974000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>17774000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>14893000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>13738000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>12923000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>12235000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>12213000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>11501000</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>14880000</v>
+      </c>
+      <c r="E44" s="3">
+        <v>19689000</v>
+      </c>
+      <c r="F44" s="3">
         <v>18392000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>17006000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>16520000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>14769000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>14273000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>14985000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>15247000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>14635000</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>16088000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>18820000</v>
+      </c>
+      <c r="F45" s="3">
         <v>14408000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>14824000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>16957000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>14941000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>14455000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>14368000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>15912000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>15972000</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>79799000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>87324000</v>
+      </c>
+      <c r="F46" s="3">
         <v>79858000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>81985000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>84948000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>74610000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>73989000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>73085000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>72517000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>68664000</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
+        <v>25545000</v>
+      </c>
+      <c r="E47" s="3">
+        <v>26133000</v>
+      </c>
+      <c r="F47" s="3">
         <v>24806000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>25196000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>24509000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>23880000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>23746000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>23896000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>22617000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>23524000</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>113324000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>115136000</v>
+      </c>
+      <c r="F48" s="3">
         <v>114047000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>116181000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>109397000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>113491000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>112659000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>111100000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>111971000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>113433000</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>28922000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>27356000</v>
+      </c>
+      <c r="F49" s="3">
         <v>24562000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>24502000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>14587000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>14891000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>14119000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>14048000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>15362000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>14916000</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -1815,8 +2076,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -1844,37 +2111,49 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>9172000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>8353000</v>
+      </c>
+      <c r="F52" s="3">
         <v>8732000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>9152000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>9190000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>9636000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>9392000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>8880000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>8511000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>8968000</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -1902,37 +2181,49 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>256762000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>264302000</v>
+      </c>
+      <c r="F54" s="3">
         <v>252005000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>257016000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>242631000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>236508000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>233905000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>231009000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>230978000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>229505000</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -1944,8 +2235,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -1957,182 +2250,220 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>48380000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>52529000</v>
+      </c>
+      <c r="F57" s="3">
         <v>42813000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>42788000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>44258000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>38832000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>36776000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>36784000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>39947000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>36694000</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>13306000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>15180000</v>
+      </c>
+      <c r="F58" s="3">
         <v>15659000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>14909000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>11096000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>11206000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>13070000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>13582000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>13920000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>13383000</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>548000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>696000</v>
+      </c>
+      <c r="F59" s="3">
         <v>803000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>369000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1351000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>794000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>580000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>611000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>818000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>905000</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>62234000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>68405000</v>
+      </c>
+      <c r="F60" s="3">
         <v>59275000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>58066000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>56705000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>50832000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>50426000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>50977000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>54685000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>50982000</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>40129000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>41088000</v>
+      </c>
+      <c r="F61" s="3">
         <v>38362000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>40257000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>41340000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>40226000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>41548000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>42017000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>43067000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>44450000</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>36285000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>34186000</v>
+      </c>
+      <c r="F62" s="3">
         <v>34105000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>35007000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>30549000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>32850000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>31971000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>31361000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>31652000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>32957000</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -2160,8 +2491,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2189,8 +2526,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -2218,37 +2561,49 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>141122000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>146109000</v>
+      </c>
+      <c r="F66" s="3">
         <v>134030000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>135829000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>131075000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>126707000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>126717000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>127178000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>132298000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>131337000</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -2260,8 +2615,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -2289,8 +2646,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -2318,8 +2681,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -2347,8 +2716,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -2376,8 +2751,14 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
@@ -2405,8 +2786,14 @@
       <c r="K72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3">
+        <v>0</v>
+      </c>
+      <c r="M72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -2434,8 +2821,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -2463,8 +2856,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -2492,37 +2891,49 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>115640000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>118193000</v>
+      </c>
+      <c r="F76" s="3">
         <v>117975000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>121187000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>111556000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>109801000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>107188000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>103831000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>98680000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>98168000</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -2550,71 +2961,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43373</v>
+      </c>
+      <c r="F80" s="2">
         <v>43281</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43190</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43008</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>42916</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>42825</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>42735</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>817000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>3957000</v>
+      </c>
+      <c r="F81" s="3">
         <v>3721000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>2636000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>719000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>2724000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>2037000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>2849000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>345000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>1954000</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -2626,37 +3055,45 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>4553000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>3477000</v>
+      </c>
+      <c r="F83" s="3">
         <v>3508000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>3046000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>5857000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>3164000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>2930000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>4660000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>5030000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>3297000</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -2684,8 +3121,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -2713,8 +3156,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -2742,8 +3191,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -2771,8 +3226,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -2800,37 +3261,49 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>10640000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>5736000</v>
+      </c>
+      <c r="F89" s="3">
         <v>6246000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>2081000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>8615000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>4363000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>4640000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>4701000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>7018000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>4740000</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -2842,37 +3315,45 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-4550000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-3352000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-3513000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-5665000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-4662000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-3104000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-3323000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-2678000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-5742000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-4124000</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -2900,8 +3381,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -2929,37 +3416,49 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-2707000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-5587000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-2513000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-4139000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-3636000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-3371000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-3845000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-780000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-4928000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-5009000</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -2971,37 +3470,45 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
+        <v>-705000</v>
+      </c>
+      <c r="E96" s="3">
+        <v>0</v>
+      </c>
+      <c r="F96" s="3">
         <v>-2692000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-1516000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-643000</v>
       </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
         <v>-1462000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-538000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-534000</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -3029,8 +3536,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -3058,8 +3571,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -3087,91 +3606,115 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>-4818000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-1208000</v>
+      </c>
+      <c r="F100" s="3">
         <v>-6054000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-1845000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-986000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-2083000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-1105000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-1366000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-1175000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>2402000</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>-460000</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-164000</v>
+      </c>
+      <c r="F101" s="3">
         <v>-1296000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>810000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>609000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>954000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>1504000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>374000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-1119000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>2655000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-1223000</v>
+      </c>
+      <c r="F102" s="3">
         <v>-3617000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-3093000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>4602000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-137000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>1194000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>2929000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-204000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>2148000</v>
       </c>
     </row>

--- a/Financials/Quarterly/TOT_QTR_FIN.xlsx
+++ b/Financials/Quarterly/TOT_QTR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C85ED2C7-8663-46C3-8838-910242D5316B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="TOT" sheetId="6" r:id="rId1"/>
@@ -301,7 +300,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -442,23 +441,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -494,23 +476,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -686,172 +651,208 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.109375" style="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43738</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43646</v>
+      </c>
+      <c r="F7" s="2">
+        <v>43555</v>
+      </c>
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>43373</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>43281</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>43190</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>43008</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>42916</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>42825</v>
       </c>
-      <c r="L7" s="2">
+      <c r="O7" s="2">
         <v>42735</v>
       </c>
-      <c r="M7" s="2">
+      <c r="P7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>42538000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>45202000</v>
+      </c>
+      <c r="F8" s="3">
+        <v>45124000</v>
+      </c>
+      <c r="G8" s="3">
         <v>46312000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="H8" s="3">
         <v>48400000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="I8" s="3">
         <v>46102000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="J8" s="3">
         <v>43292000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="K8" s="3">
         <v>41442000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="L8" s="3">
         <v>37082000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="M8" s="3">
         <v>34482000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="N8" s="3">
         <v>36093000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="O8" s="3">
         <v>36867000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="P8" s="3">
         <v>31825000</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>27805000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>30295000</v>
+      </c>
+      <c r="F9" s="3">
+        <v>30238000</v>
+      </c>
+      <c r="G9" s="3">
         <v>33153000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="H9" s="3">
         <v>32577000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="I9" s="3">
         <v>31302000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="J9" s="3">
         <v>29379000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="K9" s="3">
         <v>28179000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="L9" s="3">
         <v>24585000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="M9" s="3">
         <v>22972000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="N9" s="3">
         <v>24055000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="O9" s="3">
         <v>24314000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="P9" s="3">
         <v>21176000</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>14733000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>14907000</v>
+      </c>
+      <c r="F10" s="3">
+        <v>14886000</v>
+      </c>
+      <c r="G10" s="3">
         <v>13159000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="H10" s="3">
         <v>15823000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="I10" s="3">
         <v>14800000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="J10" s="3">
         <v>13913000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="K10" s="3">
         <v>13263000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="L10" s="3">
         <v>12497000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="M10" s="3">
         <v>11510000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="N10" s="3">
         <v>12038000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="O10" s="3">
         <v>12553000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="P10" s="3">
         <v>10649000</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -865,43 +866,55 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>96000</v>
+      </c>
+      <c r="E12" s="3">
+        <v>170000</v>
+      </c>
+      <c r="F12" s="3">
+        <v>288000</v>
+      </c>
+      <c r="G12" s="3">
         <v>201000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="H12" s="3">
         <v>234000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="I12" s="3">
         <v>158000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="J12" s="3">
         <v>204000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="K12" s="3">
         <v>287000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="L12" s="3">
         <v>181000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="M12" s="3">
         <v>199000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="N12" s="3">
         <v>197000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="O12" s="3">
         <v>260000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="P12" s="3">
         <v>274000</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -935,78 +948,105 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>832000</v>
+      </c>
+      <c r="E14" s="3">
+        <v>203000</v>
+      </c>
+      <c r="F14" s="3">
+        <v>-415000</v>
+      </c>
+      <c r="G14" s="3">
         <v>1491000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="H14" s="3">
         <v>-122000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="I14" s="3">
         <v>-279000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="J14" s="3">
         <v>89000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="K14" s="3">
         <v>-520000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="L14" s="3">
         <v>-161000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="M14" s="3">
         <v>440000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="N14" s="3">
         <v>1862000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="O14" s="3">
         <v>1918000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="P14" s="3">
         <v>47000</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>3987000</v>
+      </c>
+      <c r="E15" s="3">
+        <v>3597000</v>
+      </c>
+      <c r="F15" s="3">
+        <v>3466000</v>
+      </c>
+      <c r="G15" s="3">
         <v>3138000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="H15" s="3">
         <v>3175000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="I15" s="3">
         <v>3011000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="J15" s="3">
         <v>2894000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="K15" s="3">
         <v>5691000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="L15" s="3">
         <v>2978000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="M15" s="3">
         <v>2784000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="N15" s="3">
         <v>2649000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="O15" s="3">
         <v>2816000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="P15" s="3">
         <v>2936000</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1017,78 +1057,99 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>38925000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>41171000</v>
+      </c>
+      <c r="F17" s="3">
+        <v>40166000</v>
+      </c>
+      <c r="G17" s="3">
         <v>44729000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="H17" s="3">
         <v>42511000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="I17" s="3">
         <v>41114000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="J17" s="3">
         <v>39170000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="K17" s="3">
         <v>40281000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="L17" s="3">
         <v>33354000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="M17" s="3">
         <v>32037000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="N17" s="3">
         <v>32895000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="O17" s="3">
         <v>36093000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="P17" s="3">
         <v>29963000</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>3613000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>4031000</v>
+      </c>
+      <c r="F18" s="3">
+        <v>4958000</v>
+      </c>
+      <c r="G18" s="3">
         <v>1583000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="H18" s="3">
         <v>5889000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="I18" s="3">
         <v>4988000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="J18" s="3">
         <v>4122000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="K18" s="3">
         <v>1161000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="L18" s="3">
         <v>3728000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="M18" s="3">
         <v>2445000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="N18" s="3">
         <v>3198000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="O18" s="3">
         <v>774000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="P18" s="3">
         <v>1862000</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1102,183 +1163,231 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>1366000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>908000</v>
+      </c>
+      <c r="F20" s="3">
+        <v>648000</v>
+      </c>
+      <c r="G20" s="3">
         <v>719000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="H20" s="3">
         <v>974000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="I20" s="3">
         <v>1211000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="J20" s="3">
         <v>513000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="K20" s="3">
         <v>693000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="L20" s="3">
         <v>495000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="M20" s="3">
         <v>399000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="N20" s="3">
         <v>605000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="O20" s="3">
         <v>449000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="P20" s="3">
         <v>637000</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>9221000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>8758000</v>
+      </c>
+      <c r="F21" s="3">
+        <v>9322000</v>
+      </c>
+      <c r="G21" s="3">
         <v>6855000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="H21" s="3">
         <v>10340000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="I21" s="3">
         <v>9707000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="J21" s="3">
         <v>7681000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="K21" s="3">
         <v>7711000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="L21" s="3">
         <v>7387000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="M21" s="3">
         <v>5774000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="N21" s="3">
         <v>8463000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="O21" s="3">
         <v>6253000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="P21" s="3">
         <v>5796000</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>594000</v>
+      </c>
+      <c r="E22" s="3">
+        <v>564000</v>
+      </c>
+      <c r="F22" s="3">
+        <v>557000</v>
+      </c>
+      <c r="G22" s="3">
         <v>529000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="H22" s="3">
         <v>536000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="I22" s="3">
         <v>478000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="J22" s="3">
         <v>390000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="K22" s="3">
         <v>352000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="L22" s="3">
         <v>368000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="M22" s="3">
         <v>345000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="N22" s="3">
         <v>331000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="O22" s="3">
         <v>299000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="P22" s="3">
         <v>268000</v>
       </c>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>4385000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>4375000</v>
+      </c>
+      <c r="F23" s="3">
+        <v>5049000</v>
+      </c>
+      <c r="G23" s="3">
         <v>1773000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="H23" s="3">
         <v>6327000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="I23" s="3">
         <v>5721000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="J23" s="3">
         <v>4245000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="K23" s="3">
         <v>1502000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="L23" s="3">
         <v>3855000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="M23" s="3">
         <v>2499000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="N23" s="3">
         <v>3472000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="O23" s="3">
         <v>924000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="P23" s="3">
         <v>2231000</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>1540000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1571000</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1909000</v>
+      </c>
+      <c r="G24" s="3">
         <v>593000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="H24" s="3">
         <v>2240000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="I24" s="3">
         <v>2087000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="J24" s="3">
         <v>1596000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="K24" s="3">
         <v>772000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="L24" s="3">
         <v>1092000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="M24" s="3">
         <v>472000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="N24" s="3">
         <v>693000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="O24" s="3">
         <v>437000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="P24" s="3">
         <v>251000</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1312,78 +1421,105 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>2845000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>2804000</v>
+      </c>
+      <c r="F26" s="3">
+        <v>3140000</v>
+      </c>
+      <c r="G26" s="3">
         <v>1180000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="H26" s="3">
         <v>4087000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="I26" s="3">
         <v>3634000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="J26" s="3">
         <v>2649000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="K26" s="3">
         <v>730000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="L26" s="3">
         <v>2763000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="M26" s="3">
         <v>2027000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="N26" s="3">
         <v>2779000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="O26" s="3">
         <v>487000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="P26" s="3">
         <v>1980000</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>2727000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>2624000</v>
+      </c>
+      <c r="F27" s="3">
+        <v>3036000</v>
+      </c>
+      <c r="G27" s="3">
         <v>817000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="H27" s="3">
         <v>3957000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="I27" s="3">
         <v>3721000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="J27" s="3">
         <v>2636000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="K27" s="3">
         <v>719000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="L27" s="3">
         <v>2724000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="M27" s="3">
         <v>2037000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="N27" s="3">
         <v>2849000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="O27" s="3">
         <v>345000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="P27" s="3">
         <v>1954000</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1417,8 +1553,17 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1452,8 +1597,17 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1487,8 +1641,17 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1522,78 +1685,105 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>-1366000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-908000</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-648000</v>
+      </c>
+      <c r="G32" s="3">
         <v>-719000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="H32" s="3">
         <v>-974000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="I32" s="3">
         <v>-1211000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="J32" s="3">
         <v>-513000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="K32" s="3">
         <v>-693000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="L32" s="3">
         <v>-495000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="M32" s="3">
         <v>-399000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="N32" s="3">
         <v>-605000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="O32" s="3">
         <v>-449000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="P32" s="3">
         <v>-637000</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>2727000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>2624000</v>
+      </c>
+      <c r="F33" s="3">
+        <v>3036000</v>
+      </c>
+      <c r="G33" s="3">
         <v>817000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="H33" s="3">
         <v>3957000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="I33" s="3">
         <v>3721000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="J33" s="3">
         <v>2636000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="K33" s="3">
         <v>719000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="L33" s="3">
         <v>2724000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="M33" s="3">
         <v>2037000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="N33" s="3">
         <v>2849000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="O33" s="3">
         <v>345000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="P33" s="3">
         <v>1954000</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1627,83 +1817,110 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>2727000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>2624000</v>
+      </c>
+      <c r="F35" s="3">
+        <v>3036000</v>
+      </c>
+      <c r="G35" s="3">
         <v>817000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="H35" s="3">
         <v>3957000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="I35" s="3">
         <v>3721000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="J35" s="3">
         <v>2636000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="K35" s="3">
         <v>719000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="L35" s="3">
         <v>2724000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="M35" s="3">
         <v>2037000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="N35" s="3">
         <v>2849000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="O35" s="3">
         <v>345000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="P35" s="3">
         <v>1954000</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43738</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43646</v>
+      </c>
+      <c r="F38" s="2">
+        <v>43555</v>
+      </c>
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>43373</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>43281</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>43190</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>43008</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>42916</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>42825</v>
       </c>
-      <c r="L38" s="2">
+      <c r="O38" s="2">
         <v>42735</v>
       </c>
-      <c r="M38" s="2">
+      <c r="P38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1717,8 +1934,11 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1732,323 +1952,407 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>27454000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>26723000</v>
+      </c>
+      <c r="F41" s="3">
+        <v>25432000</v>
+      </c>
+      <c r="G41" s="3">
         <v>27907000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="H41" s="3">
         <v>25252000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="I41" s="3">
         <v>26475000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="J41" s="3">
         <v>30092000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="K41" s="3">
         <v>33185000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="L41" s="3">
         <v>28583000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="M41" s="3">
         <v>28720000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="N41" s="3">
         <v>27526000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="O41" s="3">
         <v>24597000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="P41" s="3">
         <v>24801000</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
+        <v>3781000</v>
+      </c>
+      <c r="E42" s="3">
+        <v>3536000</v>
+      </c>
+      <c r="F42" s="3">
+        <v>3373000</v>
+      </c>
+      <c r="G42" s="3">
         <v>3654000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="H42" s="3">
         <v>3553000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="I42" s="3">
         <v>3609000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="J42" s="3">
         <v>2289000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="K42" s="3">
         <v>3393000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="L42" s="3">
         <v>2579000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="M42" s="3">
         <v>3618000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="N42" s="3">
         <v>3971000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="O42" s="3">
         <v>4548000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="P42" s="3">
         <v>1755000</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>18568000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>20349000</v>
+      </c>
+      <c r="F43" s="3">
+        <v>19321000</v>
+      </c>
+      <c r="G43" s="3">
         <v>17270000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="H43" s="3">
         <v>20010000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="I43" s="3">
         <v>16974000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="J43" s="3">
         <v>17774000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="K43" s="3">
         <v>14893000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="L43" s="3">
         <v>13738000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="M43" s="3">
         <v>12923000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="N43" s="3">
         <v>12235000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="O43" s="3">
         <v>12213000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="P43" s="3">
         <v>11501000</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>16226000</v>
+      </c>
+      <c r="E44" s="3">
+        <v>16410000</v>
+      </c>
+      <c r="F44" s="3">
+        <v>17075000</v>
+      </c>
+      <c r="G44" s="3">
         <v>14880000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="H44" s="3">
         <v>19689000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="I44" s="3">
         <v>18392000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="J44" s="3">
         <v>17006000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="K44" s="3">
         <v>16520000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="L44" s="3">
         <v>14769000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="M44" s="3">
         <v>14273000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="N44" s="3">
         <v>14985000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="O44" s="3">
         <v>15247000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="P44" s="3">
         <v>14635000</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>15343000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>15958000</v>
+      </c>
+      <c r="F45" s="3">
+        <v>16551000</v>
+      </c>
+      <c r="G45" s="3">
         <v>16088000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="H45" s="3">
         <v>18820000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="I45" s="3">
         <v>14408000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="J45" s="3">
         <v>14824000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="K45" s="3">
         <v>16957000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="L45" s="3">
         <v>14941000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="M45" s="3">
         <v>14455000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="N45" s="3">
         <v>14368000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="O45" s="3">
         <v>15912000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="P45" s="3">
         <v>15972000</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>81372000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>82976000</v>
+      </c>
+      <c r="F46" s="3">
+        <v>81752000</v>
+      </c>
+      <c r="G46" s="3">
         <v>79799000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="H46" s="3">
         <v>87324000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="I46" s="3">
         <v>79858000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="J46" s="3">
         <v>81985000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="K46" s="3">
         <v>84948000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="L46" s="3">
         <v>74610000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="M46" s="3">
         <v>73989000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="N46" s="3">
         <v>73085000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="O46" s="3">
         <v>72517000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="P46" s="3">
         <v>68664000</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
+        <v>29677000</v>
+      </c>
+      <c r="E47" s="3">
+        <v>28904000</v>
+      </c>
+      <c r="F47" s="3">
+        <v>28101000</v>
+      </c>
+      <c r="G47" s="3">
         <v>25545000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="H47" s="3">
         <v>26133000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="I47" s="3">
         <v>24806000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="J47" s="3">
         <v>25196000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="K47" s="3">
         <v>24509000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="L47" s="3">
         <v>23880000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="M47" s="3">
         <v>23746000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="N47" s="3">
         <v>23896000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="O47" s="3">
         <v>22617000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="P47" s="3">
         <v>23524000</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>116900000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>118063000</v>
+      </c>
+      <c r="F48" s="3">
+        <v>117881000</v>
+      </c>
+      <c r="G48" s="3">
         <v>113324000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="H48" s="3">
         <v>115136000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="I48" s="3">
         <v>114047000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="J48" s="3">
         <v>116181000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="K48" s="3">
         <v>109397000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="L48" s="3">
         <v>113491000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="M48" s="3">
         <v>112659000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="N48" s="3">
         <v>111100000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="O48" s="3">
         <v>111971000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="P48" s="3">
         <v>113433000</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>31539000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>29229000</v>
+      </c>
+      <c r="F49" s="3">
+        <v>28727000</v>
+      </c>
+      <c r="G49" s="3">
         <v>28922000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="H49" s="3">
         <v>27356000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="I49" s="3">
         <v>24562000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="J49" s="3">
         <v>24502000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="K49" s="3">
         <v>14587000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="L49" s="3">
         <v>14891000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="M49" s="3">
         <v>14119000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="N49" s="3">
         <v>14048000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="O49" s="3">
         <v>15362000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="P49" s="3">
         <v>14916000</v>
       </c>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2082,8 +2386,17 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2117,43 +2430,61 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>7953000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>8328000</v>
+      </c>
+      <c r="F52" s="3">
+        <v>8402000</v>
+      </c>
+      <c r="G52" s="3">
         <v>9172000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="H52" s="3">
         <v>8353000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="I52" s="3">
         <v>8732000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="J52" s="3">
         <v>9152000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="K52" s="3">
         <v>9190000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="L52" s="3">
         <v>9636000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="M52" s="3">
         <v>9392000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="N52" s="3">
         <v>8880000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="O52" s="3">
         <v>8511000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="P52" s="3">
         <v>8968000</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2187,43 +2518,61 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>267441000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>267500000</v>
+      </c>
+      <c r="F54" s="3">
+        <v>264863000</v>
+      </c>
+      <c r="G54" s="3">
         <v>256762000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="H54" s="3">
         <v>264302000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="I54" s="3">
         <v>252005000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="J54" s="3">
         <v>257016000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="K54" s="3">
         <v>242631000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="L54" s="3">
         <v>236508000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="M54" s="3">
         <v>233905000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="N54" s="3">
         <v>231009000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="O54" s="3">
         <v>230978000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="P54" s="3">
         <v>229505000</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2237,8 +2586,11 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2252,218 +2604,275 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>50965000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>49745000</v>
+      </c>
+      <c r="F57" s="3">
+        <v>49777000</v>
+      </c>
+      <c r="G57" s="3">
         <v>48380000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="H57" s="3">
         <v>52529000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="I57" s="3">
         <v>42813000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="J57" s="3">
         <v>42788000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="K57" s="3">
         <v>44258000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="L57" s="3">
         <v>38832000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="M57" s="3">
         <v>36776000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="N57" s="3">
         <v>36784000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="O57" s="3">
         <v>39947000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="P57" s="3">
         <v>36694000</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>14631000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>16221000</v>
+      </c>
+      <c r="F58" s="3">
+        <v>13906000</v>
+      </c>
+      <c r="G58" s="3">
         <v>13306000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="H58" s="3">
         <v>15180000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="I58" s="3">
         <v>15659000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="J58" s="3">
         <v>14909000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="K58" s="3">
         <v>11096000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="L58" s="3">
         <v>11206000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="M58" s="3">
         <v>13070000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="N58" s="3">
         <v>13582000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="O58" s="3">
         <v>13920000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="P58" s="3">
         <v>13383000</v>
       </c>
     </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>1100000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>426000</v>
+      </c>
+      <c r="F59" s="3">
+        <v>917000</v>
+      </c>
+      <c r="G59" s="3">
         <v>548000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="H59" s="3">
         <v>696000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="I59" s="3">
         <v>803000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="J59" s="3">
         <v>369000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="K59" s="3">
         <v>1351000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="L59" s="3">
         <v>794000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="M59" s="3">
         <v>580000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="N59" s="3">
         <v>611000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="O59" s="3">
         <v>818000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="P59" s="3">
         <v>905000</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>66696000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>66392000</v>
+      </c>
+      <c r="F60" s="3">
+        <v>64600000</v>
+      </c>
+      <c r="G60" s="3">
         <v>62234000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="H60" s="3">
         <v>68405000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="I60" s="3">
         <v>59275000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="J60" s="3">
         <v>58066000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="K60" s="3">
         <v>56705000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="L60" s="3">
         <v>50832000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="M60" s="3">
         <v>50426000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="N60" s="3">
         <v>50977000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="O60" s="3">
         <v>54685000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="P60" s="3">
         <v>50982000</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>47923000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>45394000</v>
+      </c>
+      <c r="F61" s="3">
+        <v>44396000</v>
+      </c>
+      <c r="G61" s="3">
         <v>40129000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="H61" s="3">
         <v>41088000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="I61" s="3">
         <v>38362000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="J61" s="3">
         <v>40257000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="K61" s="3">
         <v>41340000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="L61" s="3">
         <v>40226000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="M61" s="3">
         <v>41548000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="N61" s="3">
         <v>42017000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="O61" s="3">
         <v>43067000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="P61" s="3">
         <v>44450000</v>
       </c>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>35509000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>36490000</v>
+      </c>
+      <c r="F62" s="3">
+        <v>35509000</v>
+      </c>
+      <c r="G62" s="3">
         <v>36285000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="H62" s="3">
         <v>34186000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="I62" s="3">
         <v>34105000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="J62" s="3">
         <v>35007000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="K62" s="3">
         <v>30549000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="L62" s="3">
         <v>32850000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="M62" s="3">
         <v>31971000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="N62" s="3">
         <v>31361000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="O62" s="3">
         <v>31652000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="P62" s="3">
         <v>32957000</v>
       </c>
     </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -2497,8 +2906,17 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2532,8 +2950,17 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -2567,43 +2994,61 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>152447000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>150638000</v>
+      </c>
+      <c r="F66" s="3">
+        <v>146870000</v>
+      </c>
+      <c r="G66" s="3">
         <v>141122000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="H66" s="3">
         <v>146109000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="I66" s="3">
         <v>134030000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="J66" s="3">
         <v>135829000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="K66" s="3">
         <v>131075000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="L66" s="3">
         <v>126707000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="M66" s="3">
         <v>126717000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="N66" s="3">
         <v>127178000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="O66" s="3">
         <v>132298000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="P66" s="3">
         <v>131337000</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -2617,8 +3062,11 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -2652,8 +3100,17 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -2687,8 +3144,17 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -2722,8 +3188,17 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -2757,8 +3232,17 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
@@ -2792,8 +3276,17 @@
       <c r="M72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N72" s="3">
+        <v>0</v>
+      </c>
+      <c r="O72" s="3">
+        <v>0</v>
+      </c>
+      <c r="P72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -2827,8 +3320,17 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -2862,8 +3364,17 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -2897,43 +3408,61 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>114994000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>116862000</v>
+      </c>
+      <c r="F76" s="3">
+        <v>117993000</v>
+      </c>
+      <c r="G76" s="3">
         <v>115640000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="H76" s="3">
         <v>118193000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="I76" s="3">
         <v>117975000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="J76" s="3">
         <v>121187000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="K76" s="3">
         <v>111556000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="L76" s="3">
         <v>109801000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="M76" s="3">
         <v>107188000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="N76" s="3">
         <v>103831000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="O76" s="3">
         <v>98680000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="P76" s="3">
         <v>98168000</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -2967,83 +3496,110 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43738</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43646</v>
+      </c>
+      <c r="F80" s="2">
+        <v>43555</v>
+      </c>
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>43373</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>43281</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>43190</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>43008</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>42916</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>42825</v>
       </c>
-      <c r="L80" s="2">
+      <c r="O80" s="2">
         <v>42735</v>
       </c>
-      <c r="M80" s="2">
+      <c r="P80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>2727000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>2624000</v>
+      </c>
+      <c r="F81" s="3">
+        <v>3036000</v>
+      </c>
+      <c r="G81" s="3">
         <v>817000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="H81" s="3">
         <v>3957000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="I81" s="3">
         <v>3721000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="J81" s="3">
         <v>2636000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="K81" s="3">
         <v>719000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="L81" s="3">
         <v>2724000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="M81" s="3">
         <v>2037000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="N81" s="3">
         <v>2849000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="O81" s="3">
         <v>345000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="P81" s="3">
         <v>1954000</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -3057,43 +3613,55 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>4242000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>3819000</v>
+      </c>
+      <c r="F83" s="3">
+        <v>3716000</v>
+      </c>
+      <c r="G83" s="3">
         <v>4553000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="H83" s="3">
         <v>3477000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="I83" s="3">
         <v>3508000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="J83" s="3">
         <v>3046000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="K83" s="3">
         <v>5857000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="L83" s="3">
         <v>3164000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="M83" s="3">
         <v>2930000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="N83" s="3">
         <v>4660000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="O83" s="3">
         <v>5030000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="P83" s="3">
         <v>3297000</v>
       </c>
     </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -3127,8 +3695,17 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -3162,8 +3739,17 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -3197,8 +3783,17 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -3232,8 +3827,17 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -3267,43 +3871,61 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>8206000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>6251000</v>
+      </c>
+      <c r="F89" s="3">
+        <v>3629000</v>
+      </c>
+      <c r="G89" s="3">
         <v>10640000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="H89" s="3">
         <v>5736000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="I89" s="3">
         <v>6246000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="J89" s="3">
         <v>2081000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="K89" s="3">
         <v>8615000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="L89" s="3">
         <v>4363000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="M89" s="3">
         <v>4640000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="N89" s="3">
         <v>4701000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="O89" s="3">
         <v>7018000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="P89" s="3">
         <v>4740000</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -3317,43 +3939,55 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-2210000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-2881000</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-2704000</v>
+      </c>
+      <c r="G91" s="3">
         <v>-4550000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="H91" s="3">
         <v>-3352000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="I91" s="3">
         <v>-3513000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="J91" s="3">
         <v>-5665000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="K91" s="3">
         <v>-4662000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="L91" s="3">
         <v>-3104000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="M91" s="3">
         <v>-3323000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="N91" s="3">
         <v>-2678000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="O91" s="3">
         <v>-5742000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="P91" s="3">
         <v>-4124000</v>
       </c>
     </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -3387,8 +4021,17 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -3422,43 +4065,61 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-6831000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-3331000</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-3090000</v>
+      </c>
+      <c r="G94" s="3">
         <v>-2707000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="H94" s="3">
         <v>-5587000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="I94" s="3">
         <v>-2513000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="J94" s="3">
         <v>-4139000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="K94" s="3">
         <v>-3636000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="L94" s="3">
         <v>-3371000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="M94" s="3">
         <v>-3845000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="N94" s="3">
         <v>-780000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="O94" s="3">
         <v>-4928000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="P94" s="3">
         <v>-5009000</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -3472,43 +4133,55 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
+        <v>0</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-2935000</v>
+      </c>
+      <c r="F96" s="3">
+        <v>-1830000</v>
+      </c>
+      <c r="G96" s="3">
         <v>-705000</v>
       </c>
-      <c r="E96" s="3">
-        <v>0</v>
-      </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
         <v>-2692000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="J96" s="3">
         <v>-1516000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="K96" s="3">
         <v>-643000</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-1462000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="N96" s="3">
         <v>-538000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="O96" s="3">
         <v>-534000</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -3542,8 +4215,17 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -3577,8 +4259,17 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -3612,109 +4303,145 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>507000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-1829000</v>
+      </c>
+      <c r="F100" s="3">
+        <v>-2780000</v>
+      </c>
+      <c r="G100" s="3">
         <v>-4818000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="H100" s="3">
         <v>-1208000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="I100" s="3">
         <v>-6054000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="J100" s="3">
         <v>-1845000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="K100" s="3">
         <v>-986000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="L100" s="3">
         <v>-2083000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="M100" s="3">
         <v>-1105000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="N100" s="3">
         <v>-1366000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="O100" s="3">
         <v>-1175000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="P100" s="3">
         <v>2402000</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>-1151000</v>
+      </c>
+      <c r="E101" s="3">
+        <v>200000</v>
+      </c>
+      <c r="F101" s="3">
+        <v>-234000</v>
+      </c>
+      <c r="G101" s="3">
         <v>-460000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="H101" s="3">
         <v>-164000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="I101" s="3">
         <v>-1296000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="J101" s="3">
         <v>810000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="K101" s="3">
         <v>609000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="L101" s="3">
         <v>954000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="M101" s="3">
         <v>1504000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="N101" s="3">
         <v>374000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="O101" s="3">
         <v>-1119000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="P101" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>731000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>1291000</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-2475000</v>
+      </c>
+      <c r="G102" s="3">
         <v>2655000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="H102" s="3">
         <v>-1223000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="I102" s="3">
         <v>-3617000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="J102" s="3">
         <v>-3093000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="K102" s="3">
         <v>4602000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="L102" s="3">
         <v>-137000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="M102" s="3">
         <v>1194000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="N102" s="3">
         <v>2929000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="O102" s="3">
         <v>-204000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="P102" s="3">
         <v>2148000</v>
       </c>
     </row>
